--- a/Photographic Archive/GRASSROOTS COLLECTION.xlsx
+++ b/Photographic Archive/GRASSROOTS COLLECTION.xlsx
@@ -5253,7 +5253,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5265,7 +5265,7 @@
     <col min="7" max="7" width="39.44140625" customWidth="1"/>
     <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.77734375" customWidth="1"/>
-    <col min="11" max="14" width="12.6640625" customWidth="1"/>
+    <col min="11" max="14" width="12.6640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
